--- a/patient_data/patient_80.xlsx
+++ b/patient_data/patient_80.xlsx
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
